--- a/TestData/payment_to_user_testdata.xlsx
+++ b/TestData/payment_to_user_testdata.xlsx
@@ -5,16 +5,17 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Cyclos_project\PilotProject_Cyclos_Team1-3\TestData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Cyclos_project\PilotProject_Cyclos_Team1-5\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0A80809-88AF-4DC9-9048-E0D46ED9B879}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB0AB1E5-67BD-4807-830F-7E31CCBFC986}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3780" yWindow="2328" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="6">
   <si>
     <t>Dinesh dk</t>
   </si>
@@ -49,7 +50,10 @@
     <t>${exceeded_amount_data}</t>
   </si>
   <si>
-    <t>Dinesh_dk</t>
+    <t>keerthisan</t>
+  </si>
+  <si>
+    <t>dinesh dk</t>
   </si>
 </sst>
 </file>
@@ -373,7 +377,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -392,7 +396,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B2" s="1">
         <v>10</v>
@@ -408,7 +412,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -436,4 +440,39 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37A76D10-DA82-4E9A-86FA-40DBE222DB24}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="15.44140625" customWidth="1"/>
+    <col min="2" max="2" width="15.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="1">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>